--- a/Developmental Disorders.xlsx
+++ b/Developmental Disorders.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jojo1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jojo1\Documents\GitHub\Developmental-Disorders-KNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9BB39-560D-48A6-80AE-427DA59B5E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1770E9EC-0DB8-4D27-8988-088B0179EA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>VCI</t>
   </si>
   <si>
-    <t>PCI</t>
-  </si>
-  <si>
     <t>WMI</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>ASD</t>
+  </si>
+  <si>
+    <t>PRI</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,7 @@
   <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H329" sqref="H329"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -375,22 +375,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -398,7 +398,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>14</v>
@@ -431,7 +431,7 @@
         <v>53</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -439,7 +439,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -472,7 +472,7 @@
         <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -480,7 +480,7 @@
         <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>12</v>
@@ -513,7 +513,7 @@
         <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -521,7 +521,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>65</v>
@@ -554,7 +554,7 @@
         <v>56</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -562,7 +562,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>19</v>
@@ -595,7 +595,7 @@
         <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -603,7 +603,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>14</v>
@@ -636,7 +636,7 @@
         <v>41</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -644,7 +644,7 @@
         <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -677,7 +677,7 @@
         <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -685,7 +685,7 @@
         <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>18</v>
@@ -718,7 +718,7 @@
         <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -726,7 +726,7 @@
         <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>24</v>
@@ -759,7 +759,7 @@
         <v>51</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -767,7 +767,7 @@
         <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>36</v>
@@ -800,7 +800,7 @@
         <v>51</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -808,7 +808,7 @@
         <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>54</v>
@@ -841,7 +841,7 @@
         <v>51</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -849,7 +849,7 @@
         <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>30</v>
@@ -882,7 +882,7 @@
         <v>49</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -890,7 +890,7 @@
         <v>139</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>48</v>
@@ -923,7 +923,7 @@
         <v>38</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -931,7 +931,7 @@
         <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>24</v>
@@ -964,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -972,7 +972,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>24</v>
@@ -1005,7 +1005,7 @@
         <v>51</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1013,7 +1013,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>48</v>
@@ -1046,7 +1046,7 @@
         <v>48</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1054,7 +1054,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>36</v>
@@ -1087,7 +1087,7 @@
         <v>51</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1095,7 +1095,7 @@
         <v>98</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>28</v>
@@ -1128,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1136,7 +1136,7 @@
         <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
         <v>48</v>
@@ -1169,7 +1169,7 @@
         <v>52</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1177,7 +1177,7 @@
         <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1">
         <v>36</v>
@@ -1210,7 +1210,7 @@
         <v>52</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1218,7 +1218,7 @@
         <v>131</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1">
         <v>24</v>
@@ -1251,7 +1251,7 @@
         <v>52</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1259,7 +1259,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1">
         <v>42</v>
@@ -1292,7 +1292,7 @@
         <v>51</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1300,7 +1300,7 @@
         <v>129</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1">
         <v>18</v>
@@ -1333,7 +1333,7 @@
         <v>42</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1341,7 +1341,7 @@
         <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>25</v>
@@ -1374,7 +1374,7 @@
         <v>49</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1382,7 +1382,7 @@
         <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1">
         <v>18</v>
@@ -1415,7 +1415,7 @@
         <v>48</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1423,7 +1423,7 @@
         <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1">
         <v>16</v>
@@ -1456,7 +1456,7 @@
         <v>52</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1464,7 +1464,7 @@
         <v>117</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>18</v>
@@ -1497,7 +1497,7 @@
         <v>50</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1505,7 +1505,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
         <v>24</v>
@@ -1538,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1546,7 +1546,7 @@
         <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1">
         <v>26</v>
@@ -1579,7 +1579,7 @@
         <v>45</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1587,7 +1587,7 @@
         <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <v>18</v>
@@ -1620,7 +1620,7 @@
         <v>43</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1628,7 +1628,7 @@
         <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1">
         <v>20</v>
@@ -1661,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1669,7 +1669,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1">
         <v>12</v>
@@ -1702,7 +1702,7 @@
         <v>51</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1710,7 +1710,7 @@
         <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1">
         <v>18</v>
@@ -1743,7 +1743,7 @@
         <v>51</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1751,7 +1751,7 @@
         <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
         <v>26</v>
@@ -1784,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1792,7 +1792,7 @@
         <v>131</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
         <v>18</v>
@@ -1825,7 +1825,7 @@
         <v>49</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1833,7 +1833,7 @@
         <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1">
         <v>12</v>
@@ -1866,7 +1866,7 @@
         <v>43</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1874,7 +1874,7 @@
         <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <v>24</v>
@@ -1907,7 +1907,7 @@
         <v>53</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -1915,7 +1915,7 @@
         <v>140</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
@@ -1948,7 +1948,7 @@
         <v>52</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1956,7 +1956,7 @@
         <v>145</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1">
         <v>14</v>
@@ -1989,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1997,7 +1997,7 @@
         <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1">
         <v>48</v>
@@ -2030,7 +2030,7 @@
         <v>48</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2038,7 +2038,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1">
         <v>30</v>
@@ -2071,7 +2071,7 @@
         <v>38</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2079,7 +2079,7 @@
         <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
         <v>48</v>
@@ -2112,7 +2112,7 @@
         <v>51</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2120,7 +2120,7 @@
         <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1">
         <v>14</v>
@@ -2153,7 +2153,7 @@
         <v>51</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2161,7 +2161,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1">
         <v>18</v>
@@ -2194,7 +2194,7 @@
         <v>53</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2202,7 +2202,7 @@
         <v>152</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1">
         <v>8</v>
@@ -2235,7 +2235,7 @@
         <v>52</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2243,7 +2243,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1">
         <v>48</v>
@@ -2276,7 +2276,7 @@
         <v>49</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2284,7 +2284,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1">
         <v>18</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2325,7 +2325,7 @@
         <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1">
         <v>30</v>
@@ -2358,7 +2358,7 @@
         <v>51</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2366,7 +2366,7 @@
         <v>203</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1">
         <v>24</v>
@@ -2399,7 +2399,7 @@
         <v>52</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2407,7 +2407,7 @@
         <v>155</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1">
         <v>66</v>
@@ -2440,7 +2440,7 @@
         <v>51</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2448,7 +2448,7 @@
         <v>178</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1">
         <v>30</v>
@@ -2481,7 +2481,7 @@
         <v>51</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2489,7 +2489,7 @@
         <v>137</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1">
         <v>42</v>
@@ -2522,7 +2522,7 @@
         <v>54</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2530,7 +2530,7 @@
         <v>183</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1">
         <v>24</v>
@@ -2563,7 +2563,7 @@
         <v>49</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2571,7 +2571,7 @@
         <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1">
         <v>72</v>
@@ -2604,7 +2604,7 @@
         <v>46</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2612,7 +2612,7 @@
         <v>197</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1">
         <v>17</v>
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2653,7 +2653,7 @@
         <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1">
         <v>11</v>
@@ -2686,7 +2686,7 @@
         <v>51</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2694,7 +2694,7 @@
         <v>78</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1">
         <v>24</v>
@@ -2727,7 +2727,7 @@
         <v>51</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2735,7 +2735,7 @@
         <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1">
         <v>42</v>
@@ -2768,7 +2768,7 @@
         <v>49</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2776,7 +2776,7 @@
         <v>171</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1">
         <v>15</v>
@@ -2809,7 +2809,7 @@
         <v>50</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2817,7 +2817,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1">
         <v>20</v>
@@ -2850,7 +2850,7 @@
         <v>47</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2858,7 +2858,7 @@
         <v>140</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1">
         <v>36</v>
@@ -2891,7 +2891,7 @@
         <v>50</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2899,7 +2899,7 @@
         <v>178</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1">
         <v>18</v>
@@ -2932,7 +2932,7 @@
         <v>50</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2940,7 +2940,7 @@
         <v>142</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1">
         <v>24</v>
@@ -2973,7 +2973,7 @@
         <v>47</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2981,7 +2981,7 @@
         <v>201</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" s="1">
         <v>36</v>
@@ -3014,7 +3014,7 @@
         <v>46</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3022,7 +3022,7 @@
         <v>151</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1">
         <v>12</v>
@@ -3055,7 +3055,7 @@
         <v>49</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3063,7 +3063,7 @@
         <v>159</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="1">
         <v>24</v>
@@ -3096,7 +3096,7 @@
         <v>47</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3104,7 +3104,7 @@
         <v>155</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1">
         <v>18</v>
@@ -3137,7 +3137,7 @@
         <v>53</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3145,7 +3145,7 @@
         <v>190</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1">
         <v>24</v>
@@ -3178,7 +3178,7 @@
         <v>50</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3186,7 +3186,7 @@
         <v>152</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" s="1">
         <v>24</v>
@@ -3219,7 +3219,7 @@
         <v>49</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3227,7 +3227,7 @@
         <v>170</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1">
         <v>24</v>
@@ -3260,7 +3260,7 @@
         <v>48</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3268,7 +3268,7 @@
         <v>176</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" s="1">
         <v>18</v>
@@ -3301,7 +3301,7 @@
         <v>51</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3309,7 +3309,7 @@
         <v>179</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" s="1">
         <v>18</v>
@@ -3342,7 +3342,7 @@
         <v>49</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3350,7 +3350,7 @@
         <v>159</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1">
         <v>18</v>
@@ -3383,7 +3383,7 @@
         <v>48</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3391,7 +3391,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" s="1">
         <v>12</v>
@@ -3424,7 +3424,7 @@
         <v>48</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3432,7 +3432,7 @@
         <v>142</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="1">
         <v>60</v>
@@ -3465,7 +3465,7 @@
         <v>51</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3473,7 +3473,7 @@
         <v>102</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1">
         <v>12</v>
@@ -3506,7 +3506,7 @@
         <v>46</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3514,7 +3514,7 @@
         <v>173</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1">
         <v>60</v>
@@ -3547,7 +3547,7 @@
         <v>51</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3555,7 +3555,7 @@
         <v>121</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="1">
         <v>36</v>
@@ -3588,7 +3588,7 @@
         <v>49</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3596,7 +3596,7 @@
         <v>137</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" s="1">
         <v>24</v>
@@ -3629,7 +3629,7 @@
         <v>48</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3637,7 +3637,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81" s="1">
         <v>12</v>
@@ -3670,7 +3670,7 @@
         <v>52</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3678,7 +3678,7 @@
         <v>108</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82" s="1">
         <v>18</v>
@@ -3711,7 +3711,7 @@
         <v>46</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3719,7 +3719,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="1">
         <v>60</v>
@@ -3752,7 +3752,7 @@
         <v>51</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3760,7 +3760,7 @@
         <v>158</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1">
         <v>24</v>
@@ -3793,7 +3793,7 @@
         <v>47</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3801,7 +3801,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>12</v>
@@ -3834,7 +3834,7 @@
         <v>46</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3842,7 +3842,7 @@
         <v>106</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" s="1">
         <v>36</v>
@@ -3875,7 +3875,7 @@
         <v>49</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3883,7 +3883,7 @@
         <v>104</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1">
         <v>30</v>
@@ -3916,7 +3916,7 @@
         <v>44</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3924,7 +3924,7 @@
         <v>118</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1">
         <v>36</v>
@@ -3957,7 +3957,7 @@
         <v>50</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3965,7 +3965,7 @@
         <v>115</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1">
         <v>18</v>
@@ -3998,7 +3998,7 @@
         <v>43</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4006,7 +4006,7 @@
         <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1">
         <v>42</v>
@@ -4039,7 +4039,7 @@
         <v>43</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4047,7 +4047,7 @@
         <v>115</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1">
         <v>18</v>
@@ -4080,7 +4080,7 @@
         <v>49</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4088,7 +4088,7 @@
         <v>173</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1">
         <v>13</v>
@@ -4121,7 +4121,7 @@
         <v>52</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4129,7 +4129,7 @@
         <v>185</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1">
         <v>13</v>
@@ -4162,7 +4162,7 @@
         <v>51</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4170,7 +4170,7 @@
         <v>123</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1">
         <v>18</v>
@@ -4203,7 +4203,7 @@
         <v>51</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4211,7 +4211,7 @@
         <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" s="1">
         <v>13</v>
@@ -4244,7 +4244,7 @@
         <v>50</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4252,7 +4252,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1">
         <v>24</v>
@@ -4285,7 +4285,7 @@
         <v>49</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4293,7 +4293,7 @@
         <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" s="1">
         <v>16</v>
@@ -4326,7 +4326,7 @@
         <v>52</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4334,7 +4334,7 @@
         <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1">
         <v>18</v>
@@ -4367,7 +4367,7 @@
         <v>50</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4375,7 +4375,7 @@
         <v>79</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1">
         <v>24</v>
@@ -4408,7 +4408,7 @@
         <v>50</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4416,7 +4416,7 @@
         <v>147</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="1">
         <v>18</v>
@@ -4449,7 +4449,7 @@
         <v>49</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4457,7 +4457,7 @@
         <v>155</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" s="1">
         <v>18</v>
@@ -4490,7 +4490,7 @@
         <v>49</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4498,7 +4498,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="1">
         <v>48</v>
@@ -4531,7 +4531,7 @@
         <v>49</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4539,7 +4539,7 @@
         <v>147</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" s="1">
         <v>24</v>
@@ -4572,7 +4572,7 @@
         <v>48</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4580,7 +4580,7 @@
         <v>151</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1">
         <v>19</v>
@@ -4613,7 +4613,7 @@
         <v>50</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4621,7 +4621,7 @@
         <v>89</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105" s="1">
         <v>36</v>
@@ -4654,7 +4654,7 @@
         <v>49</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4662,7 +4662,7 @@
         <v>80</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="1">
         <v>18</v>
@@ -4695,7 +4695,7 @@
         <v>43</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4703,7 +4703,7 @@
         <v>74</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="1">
         <v>24</v>
@@ -4736,7 +4736,7 @@
         <v>51</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4744,7 +4744,7 @@
         <v>170</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" s="1">
         <v>26</v>
@@ -4777,7 +4777,7 @@
         <v>52</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4785,7 +4785,7 @@
         <v>86</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" s="1">
         <v>18</v>
@@ -4818,7 +4818,7 @@
         <v>47</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4826,7 +4826,7 @@
         <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" s="1">
         <v>42</v>
@@ -4859,7 +4859,7 @@
         <v>54</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4867,7 +4867,7 @@
         <v>145</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" s="1">
         <v>36</v>
@@ -4900,7 +4900,7 @@
         <v>54</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4908,7 +4908,7 @@
         <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="1">
         <v>12</v>
@@ -4941,7 +4941,7 @@
         <v>50</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4949,7 +4949,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" s="1">
         <v>24</v>
@@ -4982,7 +4982,7 @@
         <v>48</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4990,7 +4990,7 @@
         <v>101</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>41</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5031,7 +5031,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="1">
         <v>48</v>
@@ -5064,7 +5064,7 @@
         <v>50</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5072,7 +5072,7 @@
         <v>130</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" s="1">
         <v>18</v>
@@ -5105,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5113,7 +5113,7 @@
         <v>87</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117" s="1">
         <v>14</v>
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5154,7 +5154,7 @@
         <v>85</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="1">
         <v>18</v>
@@ -5187,7 +5187,7 @@
         <v>48</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5195,7 +5195,7 @@
         <v>128</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" s="1">
         <v>8</v>
@@ -5228,7 +5228,7 @@
         <v>50</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5236,7 +5236,7 @@
         <v>92</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" s="1">
         <v>36</v>
@@ -5269,7 +5269,7 @@
         <v>53</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5277,7 +5277,7 @@
         <v>131</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" s="1">
         <v>30</v>
@@ -5310,7 +5310,7 @@
         <v>45</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5318,7 +5318,7 @@
         <v>88</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" s="1">
         <v>21</v>
@@ -5351,7 +5351,7 @@
         <v>51</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -5359,7 +5359,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" s="1">
         <v>12</v>
@@ -5392,7 +5392,7 @@
         <v>51</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5400,7 +5400,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" s="1">
         <v>12</v>
@@ -5433,7 +5433,7 @@
         <v>50</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5441,7 +5441,7 @@
         <v>111</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" s="1">
         <v>48</v>
@@ -5474,7 +5474,7 @@
         <v>53</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5482,7 +5482,7 @@
         <v>137</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" s="1">
         <v>18</v>
@@ -5515,7 +5515,7 @@
         <v>52</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5523,7 +5523,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C127" s="1">
         <v>48</v>
@@ -5556,7 +5556,7 @@
         <v>54</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5564,7 +5564,7 @@
         <v>153</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" s="1">
         <v>12</v>
@@ -5597,7 +5597,7 @@
         <v>53</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5605,7 +5605,7 @@
         <v>197</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" s="1">
         <v>22</v>
@@ -5638,7 +5638,7 @@
         <v>49</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5646,7 +5646,7 @@
         <v>120</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" s="1">
         <v>36</v>
@@ -5679,7 +5679,7 @@
         <v>51</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5687,7 +5687,7 @@
         <v>141</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" s="1">
         <v>25</v>
@@ -5720,7 +5720,7 @@
         <v>46</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5728,7 +5728,7 @@
         <v>159</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="1">
         <v>12</v>
@@ -5761,7 +5761,7 @@
         <v>49</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5769,7 +5769,7 @@
         <v>176</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" s="1">
         <v>42</v>
@@ -5802,7 +5802,7 @@
         <v>47</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5810,7 +5810,7 @@
         <v>193</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" s="1">
         <v>12</v>
@@ -5843,7 +5843,7 @@
         <v>49</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5851,7 +5851,7 @@
         <v>162</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" s="1">
         <v>30</v>
@@ -5884,7 +5884,7 @@
         <v>51</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5892,7 +5892,7 @@
         <v>88</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136" s="1">
         <v>24</v>
@@ -5925,7 +5925,7 @@
         <v>54</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5933,7 +5933,7 @@
         <v>161</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" s="1">
         <v>12</v>
@@ -5966,7 +5966,7 @@
         <v>51</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5974,7 +5974,7 @@
         <v>151</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C138" s="1">
         <v>24</v>
@@ -6007,7 +6007,7 @@
         <v>52</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6015,7 +6015,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" s="1">
         <v>36</v>
@@ -6048,7 +6048,7 @@
         <v>50</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6056,7 +6056,7 @@
         <v>167</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" s="1">
         <v>72</v>
@@ -6089,7 +6089,7 @@
         <v>47</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6097,7 +6097,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" s="1">
         <v>12</v>
@@ -6130,7 +6130,7 @@
         <v>51</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6138,7 +6138,7 @@
         <v>172</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" s="1">
         <v>12</v>
@@ -6171,7 +6171,7 @@
         <v>46</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6179,7 +6179,7 @@
         <v>158</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" s="1">
         <v>12</v>
@@ -6212,7 +6212,7 @@
         <v>52</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6220,7 +6220,7 @@
         <v>177</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" s="1">
         <v>24</v>
@@ -6253,7 +6253,7 @@
         <v>52</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6261,7 +6261,7 @@
         <v>174</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" s="1">
         <v>18</v>
@@ -6294,7 +6294,7 @@
         <v>52</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6302,7 +6302,7 @@
         <v>192</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" s="1">
         <v>18</v>
@@ -6335,7 +6335,7 @@
         <v>47</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6343,7 +6343,7 @@
         <v>86</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" s="1">
         <v>18</v>
@@ -6376,7 +6376,7 @@
         <v>53</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -6384,7 +6384,7 @@
         <v>117</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148" s="1">
         <v>30</v>
@@ -6417,7 +6417,7 @@
         <v>50</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -6425,7 +6425,7 @@
         <v>198</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" s="1">
         <v>84</v>
@@ -6458,7 +6458,7 @@
         <v>46</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -6466,7 +6466,7 @@
         <v>213</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" s="1">
         <v>15</v>
@@ -6499,7 +6499,7 @@
         <v>46</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6507,7 +6507,7 @@
         <v>195</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" s="1">
         <v>12</v>
@@ -6540,7 +6540,7 @@
         <v>53</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6548,7 +6548,7 @@
         <v>140</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" s="1">
         <v>6</v>
@@ -6581,7 +6581,7 @@
         <v>52</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6589,7 +6589,7 @@
         <v>185</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C153" s="1">
         <v>14</v>
@@ -6622,7 +6622,7 @@
         <v>52</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6630,7 +6630,7 @@
         <v>171</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C154" s="1">
         <v>24</v>
@@ -6663,7 +6663,7 @@
         <v>42</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6671,7 +6671,7 @@
         <v>134</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" s="1">
         <v>36</v>
@@ -6704,7 +6704,7 @@
         <v>47</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6712,7 +6712,7 @@
         <v>103</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" s="1">
         <v>24</v>
@@ -6745,7 +6745,7 @@
         <v>49</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6753,7 +6753,7 @@
         <v>114</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" s="1">
         <v>24</v>
@@ -6786,7 +6786,7 @@
         <v>48</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6794,7 +6794,7 @@
         <v>116</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="1">
         <v>36</v>
@@ -6827,7 +6827,7 @@
         <v>51</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6835,7 +6835,7 @@
         <v>99</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" s="1">
         <v>15</v>
@@ -6868,7 +6868,7 @@
         <v>47</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -6876,7 +6876,7 @@
         <v>137</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" s="1">
         <v>14</v>
@@ -6909,7 +6909,7 @@
         <v>52</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -6917,7 +6917,7 @@
         <v>89</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" s="1">
         <v>19</v>
@@ -6950,7 +6950,7 @@
         <v>47</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -6958,7 +6958,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162" s="1">
         <v>12</v>
@@ -6991,7 +6991,7 @@
         <v>51</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -6999,7 +6999,7 @@
         <v>114</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163" s="1">
         <v>12</v>
@@ -7032,7 +7032,7 @@
         <v>50</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7040,7 +7040,7 @@
         <v>84</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C164" s="1">
         <v>24</v>
@@ -7073,7 +7073,7 @@
         <v>48</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7081,7 +7081,7 @@
         <v>95</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" s="1">
         <v>12</v>
@@ -7114,7 +7114,7 @@
         <v>51</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7122,7 +7122,7 @@
         <v>100</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C166" s="1">
         <v>12</v>
@@ -7155,7 +7155,7 @@
         <v>47</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7163,7 +7163,7 @@
         <v>75</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C167" s="1">
         <v>24</v>
@@ -7196,7 +7196,7 @@
         <v>55</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7204,7 +7204,7 @@
         <v>79</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C168" s="1">
         <v>30</v>
@@ -7237,7 +7237,7 @@
         <v>51</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7245,7 +7245,7 @@
         <v>112</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C169" s="1">
         <v>15</v>
@@ -7278,7 +7278,7 @@
         <v>49</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7286,7 +7286,7 @@
         <v>130</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C170" s="1">
         <v>12</v>
@@ -7319,7 +7319,7 @@
         <v>52</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7327,7 +7327,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C171" s="1">
         <v>18</v>
@@ -7360,7 +7360,7 @@
         <v>45</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -7368,7 +7368,7 @@
         <v>157</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C172" s="1">
         <v>24</v>
@@ -7401,7 +7401,7 @@
         <v>24</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -7409,7 +7409,7 @@
         <v>90</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C173" s="1">
         <v>12</v>
@@ -7442,7 +7442,7 @@
         <v>54</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -7450,7 +7450,7 @@
         <v>99</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C174" s="1">
         <v>18</v>
@@ -7483,7 +7483,7 @@
         <v>52</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -7491,7 +7491,7 @@
         <v>96</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C175" s="1">
         <v>30</v>
@@ -7524,7 +7524,7 @@
         <v>48</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -7532,7 +7532,7 @@
         <v>130</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176" s="1">
         <v>11</v>
@@ -7565,7 +7565,7 @@
         <v>52</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7573,7 +7573,7 @@
         <v>125</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C177" s="1">
         <v>12</v>
@@ -7606,7 +7606,7 @@
         <v>55</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7614,7 +7614,7 @@
         <v>110</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C178" s="1">
         <v>12</v>
@@ -7647,7 +7647,7 @@
         <v>49</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7655,7 +7655,7 @@
         <v>72</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C179" s="1">
         <v>36</v>
@@ -7688,7 +7688,7 @@
         <v>50</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7696,7 +7696,7 @@
         <v>81</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C180" s="1">
         <v>48</v>
@@ -7729,7 +7729,7 @@
         <v>52</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7737,7 +7737,7 @@
         <v>193</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" s="1">
         <v>26</v>
@@ -7770,7 +7770,7 @@
         <v>53</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7778,7 +7778,7 @@
         <v>82</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C182" s="1">
         <v>12</v>
@@ -7811,7 +7811,7 @@
         <v>50</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -7819,7 +7819,7 @@
         <v>188</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C183" s="1">
         <v>15</v>
@@ -7852,7 +7852,7 @@
         <v>46</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -7860,7 +7860,7 @@
         <v>141</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C184" s="1">
         <v>12</v>
@@ -7893,7 +7893,7 @@
         <v>51</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -7901,7 +7901,7 @@
         <v>96</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C185" s="1">
         <v>48</v>
@@ -7934,7 +7934,7 @@
         <v>48</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -7942,7 +7942,7 @@
         <v>112</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C186" s="1">
         <v>12</v>
@@ -7975,7 +7975,7 @@
         <v>53</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -7983,7 +7983,7 @@
         <v>115</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C187" s="1">
         <v>12</v>
@@ -8016,7 +8016,7 @@
         <v>53</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8024,7 +8024,7 @@
         <v>82</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C188" s="1">
         <v>24</v>
@@ -8057,7 +8057,7 @@
         <v>49</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8065,7 +8065,7 @@
         <v>117</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C189" s="1">
         <v>24</v>
@@ -8098,7 +8098,7 @@
         <v>51</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8106,7 +8106,7 @@
         <v>80</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C190" s="1">
         <v>12</v>
@@ -8139,7 +8139,7 @@
         <v>53</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8147,7 +8147,7 @@
         <v>122</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C191" s="1">
         <v>18</v>
@@ -8180,7 +8180,7 @@
         <v>53</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8188,7 +8188,7 @@
         <v>136</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C192" s="1">
         <v>24</v>
@@ -8221,7 +8221,7 @@
         <v>49</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -8229,7 +8229,7 @@
         <v>160</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C193" s="1">
         <v>12</v>
@@ -8262,7 +8262,7 @@
         <v>51</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -8270,7 +8270,7 @@
         <v>94</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C194" s="1">
         <v>15</v>
@@ -8303,7 +8303,7 @@
         <v>53</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -8311,7 +8311,7 @@
         <v>91</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C195" s="1">
         <v>18</v>
@@ -8344,7 +8344,7 @@
         <v>51</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -8352,7 +8352,7 @@
         <v>77</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C196" s="1">
         <v>18</v>
@@ -8385,7 +8385,7 @@
         <v>52</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -8393,7 +8393,7 @@
         <v>192</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C197" s="1">
         <v>54</v>
@@ -8426,7 +8426,7 @@
         <v>46</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -8434,7 +8434,7 @@
         <v>176</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C198" s="1">
         <v>30</v>
@@ -8467,7 +8467,7 @@
         <v>51</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -8475,7 +8475,7 @@
         <v>127</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C199" s="1">
         <v>12</v>
@@ -8508,7 +8508,7 @@
         <v>52</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -8516,7 +8516,7 @@
         <v>159</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C200" s="1">
         <v>16</v>
@@ -8549,7 +8549,7 @@
         <v>52</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -8557,7 +8557,7 @@
         <v>145</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C201" s="1">
         <v>18</v>
@@ -8590,7 +8590,7 @@
         <v>52</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -8598,7 +8598,7 @@
         <v>87</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C202" s="1">
         <v>12</v>
@@ -8631,7 +8631,7 @@
         <v>54</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -8639,7 +8639,7 @@
         <v>96</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C203" s="1">
         <v>14</v>
@@ -8672,7 +8672,7 @@
         <v>50</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -8680,7 +8680,7 @@
         <v>150</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C204" s="1">
         <v>36</v>
@@ -8713,7 +8713,7 @@
         <v>49</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -8721,7 +8721,7 @@
         <v>100</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C205" s="1">
         <v>30</v>
@@ -8754,7 +8754,7 @@
         <v>50</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -8762,7 +8762,7 @@
         <v>187</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C206" s="1">
         <v>20</v>
@@ -8795,7 +8795,7 @@
         <v>53</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -8803,7 +8803,7 @@
         <v>152</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C207" s="1">
         <v>18</v>
@@ -8836,7 +8836,7 @@
         <v>58</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -8844,7 +8844,7 @@
         <v>73</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C208" s="1">
         <v>44</v>
@@ -8877,7 +8877,7 @@
         <v>48</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -8885,7 +8885,7 @@
         <v>84</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C209" s="1">
         <v>18</v>
@@ -8918,7 +8918,7 @@
         <v>55</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -8926,7 +8926,7 @@
         <v>144</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C210" s="1">
         <v>12</v>
@@ -8959,7 +8959,7 @@
         <v>50</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -8967,7 +8967,7 @@
         <v>74</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C211" s="1">
         <v>42</v>
@@ -9000,7 +9000,7 @@
         <v>48</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -9008,7 +9008,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C212" s="1">
         <v>42</v>
@@ -9041,7 +9041,7 @@
         <v>49</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -9049,7 +9049,7 @@
         <v>123</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C213" s="1">
         <v>24</v>
@@ -9082,7 +9082,7 @@
         <v>50</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -9090,7 +9090,7 @@
         <v>167</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C214" s="1">
         <v>54</v>
@@ -9123,7 +9123,7 @@
         <v>51</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -9131,7 +9131,7 @@
         <v>125</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C215" s="1">
         <v>24</v>
@@ -9164,7 +9164,7 @@
         <v>52</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -9172,7 +9172,7 @@
         <v>108</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C216" s="1">
         <v>17</v>
@@ -9205,7 +9205,7 @@
         <v>52</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -9213,7 +9213,7 @@
         <v>175</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C217" s="1">
         <v>24</v>
@@ -9246,7 +9246,7 @@
         <v>51</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -9254,7 +9254,7 @@
         <v>143</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C218" s="1">
         <v>24</v>
@@ -9287,7 +9287,7 @@
         <v>51</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -9295,7 +9295,7 @@
         <v>150</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219" s="1">
         <v>48</v>
@@ -9328,7 +9328,7 @@
         <v>59</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -9336,7 +9336,7 @@
         <v>106</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C220" s="1">
         <v>36</v>
@@ -9369,7 +9369,7 @@
         <v>48</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -9377,7 +9377,7 @@
         <v>106</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C221" s="1">
         <v>18</v>
@@ -9410,7 +9410,7 @@
         <v>49</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -9418,7 +9418,7 @@
         <v>124</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C222" s="1">
         <v>12</v>
@@ -9451,7 +9451,7 @@
         <v>51</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -9459,7 +9459,7 @@
         <v>131</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C223" s="1">
         <v>24</v>
@@ -9492,7 +9492,7 @@
         <v>53</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -9500,7 +9500,7 @@
         <v>94</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C224" s="1">
         <v>12</v>
@@ -9533,7 +9533,7 @@
         <v>51</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -9541,7 +9541,7 @@
         <v>153</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C225" s="1">
         <v>18</v>
@@ -9574,7 +9574,7 @@
         <v>46</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -9582,7 +9582,7 @@
         <v>75</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C226" s="1">
         <v>12</v>
@@ -9615,7 +9615,7 @@
         <v>49</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -9623,7 +9623,7 @@
         <v>132</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C227" s="1">
         <v>18</v>
@@ -9656,7 +9656,7 @@
         <v>47</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -9664,7 +9664,7 @@
         <v>111</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C228" s="1">
         <v>12</v>
@@ -9697,7 +9697,7 @@
         <v>49</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -9705,7 +9705,7 @@
         <v>121</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C229" s="1">
         <v>12</v>
@@ -9738,7 +9738,7 @@
         <v>52</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -9746,7 +9746,7 @@
         <v>190</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C230" s="1">
         <v>12</v>
@@ -9779,7 +9779,7 @@
         <v>48</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -9787,7 +9787,7 @@
         <v>147</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C231" s="1">
         <v>18</v>
@@ -9820,7 +9820,7 @@
         <v>51</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -9828,7 +9828,7 @@
         <v>110</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C232" s="1">
         <v>18</v>
@@ -9861,7 +9861,7 @@
         <v>55</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -9869,7 +9869,7 @@
         <v>145</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C233" s="1">
         <v>24</v>
@@ -9902,7 +9902,7 @@
         <v>46</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -9910,7 +9910,7 @@
         <v>117</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C234" s="1">
         <v>19</v>
@@ -9943,7 +9943,7 @@
         <v>52</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -9951,7 +9951,7 @@
         <v>178</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C235" s="1">
         <v>12</v>
@@ -9984,7 +9984,7 @@
         <v>52</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -9992,7 +9992,7 @@
         <v>76</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C236" s="1">
         <v>24</v>
@@ -10025,7 +10025,7 @@
         <v>50</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10033,7 +10033,7 @@
         <v>121</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C237" s="1">
         <v>24</v>
@@ -10066,7 +10066,7 @@
         <v>52</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10074,7 +10074,7 @@
         <v>77</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C238" s="1">
         <v>30</v>
@@ -10107,7 +10107,7 @@
         <v>48</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10115,7 +10115,7 @@
         <v>119</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C239" s="1">
         <v>30</v>
@@ -10148,7 +10148,7 @@
         <v>49</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10156,7 +10156,7 @@
         <v>164</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C240" s="1">
         <v>36</v>
@@ -10189,7 +10189,7 @@
         <v>45</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10197,7 +10197,7 @@
         <v>84</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C241" s="1">
         <v>18</v>
@@ -10230,7 +10230,7 @@
         <v>56</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10238,7 +10238,7 @@
         <v>187</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C242" s="1">
         <v>34</v>
@@ -10271,7 +10271,7 @@
         <v>43</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10279,7 +10279,7 @@
         <v>88</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C243" s="1">
         <v>12</v>
@@ -10312,7 +10312,7 @@
         <v>49</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10320,7 +10320,7 @@
         <v>88</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C244" s="1">
         <v>18</v>
@@ -10353,7 +10353,7 @@
         <v>50</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -10361,7 +10361,7 @@
         <v>94</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C245" s="1">
         <v>48</v>
@@ -10394,7 +10394,7 @@
         <v>54</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -10402,7 +10402,7 @@
         <v>194</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C246" s="1">
         <v>12</v>
@@ -10435,7 +10435,7 @@
         <v>50</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -10443,7 +10443,7 @@
         <v>127</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C247" s="1">
         <v>24</v>
@@ -10476,7 +10476,7 @@
         <v>50</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -10484,7 +10484,7 @@
         <v>84</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C248" s="1">
         <v>27</v>
@@ -10517,7 +10517,7 @@
         <v>36</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -10525,7 +10525,7 @@
         <v>156</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C249" s="1">
         <v>12</v>
@@ -10558,7 +10558,7 @@
         <v>51</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -10566,7 +10566,7 @@
         <v>107</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C250" s="1">
         <v>36</v>
@@ -10599,7 +10599,7 @@
         <v>50</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -10607,7 +10607,7 @@
         <v>177</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C251" s="1">
         <v>12</v>
@@ -10640,7 +10640,7 @@
         <v>50</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -10648,7 +10648,7 @@
         <v>101</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C252" s="1">
         <v>12</v>
@@ -10681,7 +10681,7 @@
         <v>50</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10689,7 +10689,7 @@
         <v>89</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C253" s="1">
         <v>24</v>
@@ -10722,7 +10722,7 @@
         <v>52</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -10730,7 +10730,7 @@
         <v>105</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C254" s="1">
         <v>36</v>
@@ -10763,7 +10763,7 @@
         <v>51</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -10771,7 +10771,7 @@
         <v>90</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C255" s="1">
         <v>42</v>
@@ -10804,7 +10804,7 @@
         <v>49</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -10812,7 +10812,7 @@
         <v>139</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C256" s="1">
         <v>48</v>
@@ -10845,7 +10845,7 @@
         <v>52</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -10853,7 +10853,7 @@
         <v>122</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C257" s="1">
         <v>36</v>
@@ -10886,7 +10886,7 @@
         <v>50</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -10894,7 +10894,7 @@
         <v>109</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C258" s="1">
         <v>36</v>
@@ -10927,7 +10927,7 @@
         <v>50</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -10935,7 +10935,7 @@
         <v>160</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C259" s="1">
         <v>12</v>
@@ -10968,7 +10968,7 @@
         <v>52</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -10976,7 +10976,7 @@
         <v>202</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C260" s="1">
         <v>14</v>
@@ -11009,7 +11009,7 @@
         <v>51</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -11017,7 +11017,7 @@
         <v>94</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C261" s="1">
         <v>36</v>
@@ -11050,7 +11050,7 @@
         <v>48</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -11058,7 +11058,7 @@
         <v>80</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C262" s="1">
         <v>30</v>
@@ -11091,7 +11091,7 @@
         <v>51</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -11099,7 +11099,7 @@
         <v>141</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C263" s="1">
         <v>44</v>
@@ -11132,7 +11132,7 @@
         <v>48</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -11140,7 +11140,7 @@
         <v>147</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C264" s="1">
         <v>24</v>
@@ -11173,7 +11173,7 @@
         <v>48</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -11181,7 +11181,7 @@
         <v>143</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C265" s="1">
         <v>30</v>
@@ -11214,7 +11214,7 @@
         <v>52</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -11222,7 +11222,7 @@
         <v>92</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C266" s="1">
         <v>36</v>
@@ -11255,7 +11255,7 @@
         <v>44</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -11263,7 +11263,7 @@
         <v>163</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C267" s="1">
         <v>60</v>
@@ -11296,7 +11296,7 @@
         <v>51</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -11304,7 +11304,7 @@
         <v>119</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C268" s="1">
         <v>12</v>
@@ -11337,7 +11337,7 @@
         <v>40</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -11345,7 +11345,7 @@
         <v>169</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C269" s="1">
         <v>24</v>
@@ -11378,7 +11378,7 @@
         <v>46</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -11386,7 +11386,7 @@
         <v>165</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C270" s="1">
         <v>12</v>
@@ -11419,7 +11419,7 @@
         <v>49</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -11427,7 +11427,7 @@
         <v>96</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C271" s="1">
         <v>24</v>
@@ -11460,7 +11460,7 @@
         <v>52</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -11468,7 +11468,7 @@
         <v>153</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C272" s="1">
         <v>24</v>
@@ -11501,7 +11501,7 @@
         <v>49</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -11509,7 +11509,7 @@
         <v>103</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C273" s="1">
         <v>48</v>
@@ -11542,7 +11542,7 @@
         <v>45</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -11550,7 +11550,7 @@
         <v>121</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C274" s="1">
         <v>12</v>
@@ -11583,7 +11583,7 @@
         <v>52</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -11591,7 +11591,7 @@
         <v>115</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C275" s="1">
         <v>12</v>
@@ -11624,7 +11624,7 @@
         <v>52</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -11632,7 +11632,7 @@
         <v>139</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C276" s="1">
         <v>72</v>
@@ -11665,7 +11665,7 @@
         <v>31</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -11673,7 +11673,7 @@
         <v>92</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C277" s="1">
         <v>12</v>
@@ -11706,7 +11706,7 @@
         <v>51</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -11714,7 +11714,7 @@
         <v>96</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C278" s="1">
         <v>36</v>
@@ -11747,7 +11747,7 @@
         <v>51</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -11755,7 +11755,7 @@
         <v>89</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C279" s="1">
         <v>18</v>
@@ -11788,7 +11788,7 @@
         <v>48</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11796,7 +11796,7 @@
         <v>130</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C280" s="1">
         <v>24</v>
@@ -11829,7 +11829,7 @@
         <v>50</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -11837,7 +11837,7 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C281" s="1">
         <v>24</v>
@@ -11870,7 +11870,7 @@
         <v>53</v>
       </c>
       <c r="M281" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -11878,7 +11878,7 @@
         <v>82</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C282" s="1">
         <v>48</v>
@@ -11911,7 +11911,7 @@
         <v>49</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -11919,7 +11919,7 @@
         <v>136</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C283" s="1">
         <v>18</v>
@@ -11952,7 +11952,7 @@
         <v>54</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -11960,7 +11960,7 @@
         <v>116</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C284" s="1">
         <v>27</v>
@@ -11993,7 +11993,7 @@
         <v>47</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -12001,7 +12001,7 @@
         <v>132</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C285" s="1">
         <v>24</v>
@@ -12034,7 +12034,7 @@
         <v>46</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -12042,7 +12042,7 @@
         <v>164</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C286" s="1">
         <v>24</v>
@@ -12075,7 +12075,7 @@
         <v>49</v>
       </c>
       <c r="M286" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -12083,7 +12083,7 @@
         <v>131</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C287" s="1">
         <v>24</v>
@@ -12116,7 +12116,7 @@
         <v>46</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -12124,7 +12124,7 @@
         <v>111</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C288" s="1">
         <v>12</v>
@@ -12157,7 +12157,7 @@
         <v>51</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -12165,7 +12165,7 @@
         <v>116</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C289" s="1">
         <v>24</v>
@@ -12198,7 +12198,7 @@
         <v>43</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -12206,7 +12206,7 @@
         <v>93</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C290" s="1">
         <v>12</v>
@@ -12239,7 +12239,7 @@
         <v>48</v>
       </c>
       <c r="M290" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -12247,7 +12247,7 @@
         <v>167</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C291" s="1">
         <v>10</v>
@@ -12280,7 +12280,7 @@
         <v>50</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -12288,7 +12288,7 @@
         <v>87</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C292" s="1">
         <v>30</v>
@@ -12321,7 +12321,7 @@
         <v>50</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -12329,7 +12329,7 @@
         <v>147</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C293" s="1">
         <v>12</v>
@@ -12362,7 +12362,7 @@
         <v>52</v>
       </c>
       <c r="M293" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -12370,7 +12370,7 @@
         <v>135</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C294" s="1">
         <v>18</v>
@@ -12403,7 +12403,7 @@
         <v>47</v>
       </c>
       <c r="M294" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -12411,7 +12411,7 @@
         <v>147</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C295" s="1">
         <v>15</v>
@@ -12444,7 +12444,7 @@
         <v>49</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -12452,7 +12452,7 @@
         <v>145</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C296" s="1">
         <v>24</v>
@@ -12485,7 +12485,7 @@
         <v>51</v>
       </c>
       <c r="M296" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -12493,7 +12493,7 @@
         <v>164</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C297" s="1">
         <v>18</v>
@@ -12526,7 +12526,7 @@
         <v>47</v>
       </c>
       <c r="M297" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -12534,7 +12534,7 @@
         <v>98</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C298" s="1">
         <v>60</v>
@@ -12567,7 +12567,7 @@
         <v>50</v>
       </c>
       <c r="M298" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:13">
@@ -12575,7 +12575,7 @@
         <v>174</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C299" s="1">
         <v>24</v>
@@ -12608,7 +12608,7 @@
         <v>43</v>
       </c>
       <c r="M299" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:13">
@@ -12616,7 +12616,7 @@
         <v>91</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C300" s="1">
         <v>18</v>
@@ -12649,7 +12649,7 @@
         <v>51</v>
       </c>
       <c r="M300" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -12657,7 +12657,7 @@
         <v>165</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C301" s="1">
         <v>12</v>
@@ -12690,7 +12690,7 @@
         <v>50</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:13">
@@ -12698,7 +12698,7 @@
         <v>133</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C302" s="1">
         <v>48</v>
@@ -12731,7 +12731,7 @@
         <v>52</v>
       </c>
       <c r="M302" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" spans="1:13">
@@ -12739,7 +12739,7 @@
         <v>147</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C303" s="1">
         <v>12</v>
@@ -12772,7 +12772,7 @@
         <v>52</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:13">
@@ -12780,7 +12780,7 @@
         <v>134</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C304" s="1">
         <v>18</v>
@@ -12813,7 +12813,7 @@
         <v>43</v>
       </c>
       <c r="M304" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -12821,7 +12821,7 @@
         <v>139</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C305" s="1">
         <v>12</v>
@@ -12854,7 +12854,7 @@
         <v>52</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -12862,7 +12862,7 @@
         <v>133</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C306" s="1">
         <v>30</v>
@@ -12895,7 +12895,7 @@
         <v>54</v>
       </c>
       <c r="M306" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -12903,7 +12903,7 @@
         <v>110</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C307" s="1">
         <v>18</v>
@@ -12936,7 +12936,7 @@
         <v>49</v>
       </c>
       <c r="M307" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -12944,7 +12944,7 @@
         <v>122</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C308" s="1">
         <v>48</v>
@@ -12977,7 +12977,7 @@
         <v>49</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -12985,7 +12985,7 @@
         <v>140</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C309" s="1">
         <v>24</v>
@@ -13018,7 +13018,7 @@
         <v>49</v>
       </c>
       <c r="M309" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:13">
@@ -13026,7 +13026,7 @@
         <v>145</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C310" s="1">
         <v>42</v>
@@ -13059,7 +13059,7 @@
         <v>48</v>
       </c>
       <c r="M310" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -13067,7 +13067,7 @@
         <v>132</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C311" s="1">
         <v>12</v>
@@ -13100,7 +13100,7 @@
         <v>49</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -13108,7 +13108,7 @@
         <v>116</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C312" s="1">
         <v>48</v>
@@ -13141,7 +13141,7 @@
         <v>50</v>
       </c>
       <c r="M312" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -13149,7 +13149,7 @@
         <v>121</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C313" s="1">
         <v>18</v>
@@ -13182,7 +13182,7 @@
         <v>51</v>
       </c>
       <c r="M313" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -13190,7 +13190,7 @@
         <v>142</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C314" s="1">
         <v>54</v>
@@ -13223,7 +13223,7 @@
         <v>48</v>
       </c>
       <c r="M314" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -13231,7 +13231,7 @@
         <v>83</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C315" s="1">
         <v>24</v>
@@ -13264,7 +13264,7 @@
         <v>46</v>
       </c>
       <c r="M315" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -13272,7 +13272,7 @@
         <v>83</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C316" s="1">
         <v>24</v>
@@ -13305,7 +13305,7 @@
         <v>54</v>
       </c>
       <c r="M316" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -13313,7 +13313,7 @@
         <v>99</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C317" s="1">
         <v>12</v>
@@ -13346,7 +13346,7 @@
         <v>51</v>
       </c>
       <c r="M317" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -13354,7 +13354,7 @@
         <v>84</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C318" s="1">
         <v>18</v>
@@ -13387,7 +13387,7 @@
         <v>51</v>
       </c>
       <c r="M318" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -13395,7 +13395,7 @@
         <v>106</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C319" s="1">
         <v>18</v>
@@ -13428,7 +13428,7 @@
         <v>53</v>
       </c>
       <c r="M319" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -13436,7 +13436,7 @@
         <v>150</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C320" s="1">
         <v>36</v>
@@ -13469,7 +13469,7 @@
         <v>49</v>
       </c>
       <c r="M320" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -13477,7 +13477,7 @@
         <v>106</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C321" s="1">
         <v>12</v>
@@ -13510,7 +13510,7 @@
         <v>47</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -13518,7 +13518,7 @@
         <v>130</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C322" s="1">
         <v>12</v>
@@ -13551,7 +13551,7 @@
         <v>49</v>
       </c>
       <c r="M322" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -13559,7 +13559,7 @@
         <v>190</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C323" s="1">
         <v>36</v>
@@ -13592,7 +13592,7 @@
         <v>46</v>
       </c>
       <c r="M323" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -13600,7 +13600,7 @@
         <v>107</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C324" s="1">
         <v>12</v>
@@ -13633,7 +13633,7 @@
         <v>51</v>
       </c>
       <c r="M324" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -13641,7 +13641,7 @@
         <v>176</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C325" s="1">
         <v>42</v>
@@ -13674,7 +13674,7 @@
         <v>48</v>
       </c>
       <c r="M325" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -13682,7 +13682,7 @@
         <v>97</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C326" s="1">
         <v>15</v>
@@ -13715,7 +13715,7 @@
         <v>52</v>
       </c>
       <c r="M326" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -13723,7 +13723,7 @@
         <v>116</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C327" s="1">
         <v>54</v>
@@ -13756,7 +13756,7 @@
         <v>52</v>
       </c>
       <c r="M327" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -13764,7 +13764,7 @@
         <v>80</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C328" s="1">
         <v>12</v>
@@ -13797,7 +13797,7 @@
         <v>51</v>
       </c>
       <c r="M328" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -13805,7 +13805,7 @@
         <v>161</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C329" s="1">
         <v>12</v>
@@ -13838,7 +13838,7 @@
         <v>45</v>
       </c>
       <c r="M329" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
